--- a/Ginger DH Parameter.xlsx
+++ b/Ginger DH Parameter.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="221">
   <si>
     <t>i</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -893,6 +893,10 @@
   </si>
   <si>
     <t>M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tl_1-2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -982,7 +986,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1026,17 +1030,20 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1345,8 +1352,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O31" sqref="O31"/>
+    <sheetView tabSelected="1" topLeftCell="A56" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P70" sqref="P70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -1373,13 +1380,13 @@
       <c r="D2" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="K2" s="17" t="s">
+      <c r="K2" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C3" s="1"/>
@@ -1532,10 +1539,10 @@
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="19"/>
+      <c r="B8" s="22"/>
       <c r="C8" s="13" t="s">
         <v>24</v>
       </c>
@@ -1664,7 +1671,7 @@
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C16" s="10"/>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C17" s="10" t="s">
         <v>25</v>
       </c>
@@ -1686,20 +1693,20 @@
       <c r="I17" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="K17" s="17" t="s">
+      <c r="K17" s="19" t="s">
         <v>184</v>
       </c>
-      <c r="L17" s="17"/>
-      <c r="M17" s="17"/>
-      <c r="N17" s="17"/>
-      <c r="O17" s="17"/>
-      <c r="P17" s="17"/>
-      <c r="Q17" s="17"/>
-      <c r="R17" s="17"/>
-      <c r="S17" s="17"/>
-      <c r="T17" s="17"/>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="L17" s="19"/>
+      <c r="M17" s="19"/>
+      <c r="N17" s="19"/>
+      <c r="O17" s="19"/>
+      <c r="P17" s="19"/>
+      <c r="Q17" s="19"/>
+      <c r="R17" s="19"/>
+      <c r="S17" s="19"/>
+      <c r="T17" s="19"/>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C18" s="10" t="s">
         <v>43</v>
       </c>
@@ -1721,19 +1728,19 @@
       <c r="I18" s="11" t="s">
         <v>193</v>
       </c>
-      <c r="K18" s="17" t="s">
+      <c r="K18" s="19" t="s">
         <v>194</v>
       </c>
-      <c r="L18" s="17"/>
-      <c r="M18" s="17"/>
-      <c r="N18" s="17"/>
-      <c r="O18" s="17"/>
-      <c r="P18" s="17"/>
-      <c r="Q18" s="17"/>
-      <c r="R18" s="17"/>
-      <c r="S18" s="17"/>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="L18" s="19"/>
+      <c r="M18" s="19"/>
+      <c r="N18" s="19"/>
+      <c r="O18" s="19"/>
+      <c r="P18" s="19"/>
+      <c r="Q18" s="19"/>
+      <c r="R18" s="19"/>
+      <c r="S18" s="19"/>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C19" s="10" t="s">
         <v>44</v>
       </c>
@@ -1756,18 +1763,18 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C20" s="10" t="s">
         <v>45</v>
       </c>
       <c r="D20" s="11">
-        <v>4.9124788199999998E-2</v>
+        <v>4.9200000000000001E-2</v>
       </c>
       <c r="E20" s="11">
         <v>-90</v>
       </c>
       <c r="F20" s="11">
-        <v>0.224655826</v>
+        <v>0.22452</v>
       </c>
       <c r="G20" s="11" t="s">
         <v>16</v>
@@ -1788,13 +1795,14 @@
         <v>-0.93969261999999998</v>
       </c>
       <c r="P20" s="3">
-        <v>0.167642819139667</v>
+        <v>0.16339999999999999</v>
       </c>
       <c r="R20" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Y20" s="17"/>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C21" s="10" t="s">
         <v>46</v>
       </c>
@@ -1817,7 +1825,7 @@
         <v>38</v>
       </c>
       <c r="L21" t="s">
-        <v>195</v>
+        <v>220</v>
       </c>
       <c r="M21" s="3" t="s">
         <v>202</v>
@@ -1829,17 +1837,18 @@
         <v>0.34202014330000002</v>
       </c>
       <c r="P21" s="3">
-        <v>-0.257434208387602</v>
+        <v>-0.2581</v>
       </c>
       <c r="R21" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A22" s="19" t="s">
+      <c r="Y21" s="17"/>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A22" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="18"/>
+      <c r="B22" s="20"/>
       <c r="C22" s="10" t="s">
         <v>47</v>
       </c>
@@ -1850,7 +1859,7 @@
         <v>-90</v>
       </c>
       <c r="F22" s="11">
-        <v>0.20955780328777099</v>
+        <v>0.21923000000000001</v>
       </c>
       <c r="G22" s="11" t="s">
         <v>18</v>
@@ -1871,13 +1880,13 @@
         <v>0</v>
       </c>
       <c r="P22" s="3">
-        <v>1.53204612848375E-2</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="R22" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C23" s="10" t="s">
         <v>48</v>
       </c>
@@ -1915,7 +1924,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C24" s="10" t="s">
         <v>49</v>
       </c>
@@ -1938,13 +1947,13 @@
         <v>53</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C25" s="10"/>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C26" s="10"/>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C27" s="10" t="s">
         <v>59</v>
       </c>
@@ -1979,19 +1988,19 @@
         <v>-1.5001254723339999E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A28" s="19" t="s">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A28" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="B28" s="19"/>
+      <c r="B28" s="22"/>
       <c r="C28" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="D28" s="17" t="s">
+      <c r="D28" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
       <c r="G28" s="11" t="s">
         <v>42</v>
       </c>
@@ -2029,7 +2038,7 @@
         <v>2.12358742868166E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C29" s="10" t="s">
         <v>61</v>
       </c>
@@ -2067,7 +2076,7 @@
         <v>-3.7299995011161303E-4</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C30" s="10" t="s">
         <v>55</v>
       </c>
@@ -2102,10 +2111,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C31" s="10"/>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C32" s="10"/>
     </row>
     <row r="33" spans="1:26" x14ac:dyDescent="0.25">
@@ -2159,10 +2168,10 @@
       </c>
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A34" s="19" t="s">
+      <c r="A34" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="B34" s="18"/>
+      <c r="B34" s="20"/>
       <c r="C34" s="10" t="s">
         <v>62</v>
       </c>
@@ -2225,11 +2234,11 @@
       <c r="C35" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="D35" s="17" t="s">
+      <c r="D35" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="E35" s="18"/>
-      <c r="F35" s="18"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="20"/>
       <c r="G35" s="11" t="s">
         <v>15</v>
       </c>
@@ -2397,10 +2406,10 @@
       </c>
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A41" s="19" t="s">
+      <c r="A41" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="B41" s="18"/>
+      <c r="B41" s="20"/>
       <c r="C41" s="10" t="s">
         <v>77</v>
       </c>
@@ -2463,11 +2472,11 @@
       <c r="C42" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D42" s="17" t="s">
+      <c r="D42" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="E42" s="18"/>
-      <c r="F42" s="18"/>
+      <c r="E42" s="20"/>
+      <c r="F42" s="20"/>
       <c r="G42" s="11" t="s">
         <v>15</v>
       </c>
@@ -2635,10 +2644,10 @@
       </c>
     </row>
     <row r="48" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A48" s="19" t="s">
+      <c r="A48" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="B48" s="18"/>
+      <c r="B48" s="20"/>
       <c r="C48" s="10" t="s">
         <v>85</v>
       </c>
@@ -2701,11 +2710,11 @@
       <c r="C49" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="D49" s="17" t="s">
+      <c r="D49" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="E49" s="18"/>
-      <c r="F49" s="18"/>
+      <c r="E49" s="20"/>
+      <c r="F49" s="20"/>
       <c r="G49" s="11" t="s">
         <v>15</v>
       </c>
@@ -2873,10 +2882,10 @@
       </c>
     </row>
     <row r="55" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A55" s="19" t="s">
+      <c r="A55" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="B55" s="18"/>
+      <c r="B55" s="20"/>
       <c r="C55" s="10" t="s">
         <v>94</v>
       </c>
@@ -2939,11 +2948,11 @@
       <c r="C56" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="D56" s="17" t="s">
+      <c r="D56" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="E56" s="18"/>
-      <c r="F56" s="18"/>
+      <c r="E56" s="20"/>
+      <c r="F56" s="20"/>
       <c r="G56" s="11" t="s">
         <v>15</v>
       </c>
@@ -3082,7 +3091,7 @@
       <c r="I61" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="K61" s="20" t="s">
+      <c r="K61" s="18" t="s">
         <v>185</v>
       </c>
     </row>
@@ -3108,7 +3117,7 @@
       <c r="I62" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="K62" s="20" t="s">
+      <c r="K62" s="18" t="s">
         <v>186</v>
       </c>
     </row>
@@ -3140,13 +3149,13 @@
         <v>127</v>
       </c>
       <c r="D64" s="15">
-        <v>-4.9124788199999998E-2</v>
+        <v>-4.9200000000000001E-2</v>
       </c>
       <c r="E64" s="15">
         <v>-90</v>
       </c>
       <c r="F64" s="15">
-        <v>0.224655826</v>
+        <v>0.22452</v>
       </c>
       <c r="G64" s="15" t="s">
         <v>16</v>
@@ -3190,17 +3199,17 @@
         <v>-0.93969261999999998</v>
       </c>
       <c r="P65" s="3">
-        <v>0.167642819139667</v>
+        <v>0.16339999999999999</v>
       </c>
       <c r="R65" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="66" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A66" s="19" t="s">
+      <c r="A66" s="22" t="s">
         <v>125</v>
       </c>
-      <c r="B66" s="18"/>
+      <c r="B66" s="20"/>
       <c r="C66" s="16" t="s">
         <v>129</v>
       </c>
@@ -3211,7 +3220,7 @@
         <v>-90</v>
       </c>
       <c r="F66" s="15">
-        <v>0.20955780328777099</v>
+        <v>0.21923000000000001</v>
       </c>
       <c r="G66" s="15" t="s">
         <v>18</v>
@@ -3235,7 +3244,7 @@
         <v>-0.34202014330000002</v>
       </c>
       <c r="P66" s="3">
-        <v>-0.257434208387602</v>
+        <v>-0.2581</v>
       </c>
       <c r="R66" t="s">
         <v>204</v>
@@ -3273,7 +3282,7 @@
         <v>0</v>
       </c>
       <c r="P67" s="3">
-        <v>1.53204612848375E-2</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="R67" t="s">
         <v>200</v>
@@ -3363,18 +3372,18 @@
       </c>
     </row>
     <row r="72" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A72" s="19" t="s">
+      <c r="A72" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="B72" s="19"/>
+      <c r="B72" s="22"/>
       <c r="C72" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="D72" s="17" t="s">
+      <c r="D72" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="E72" s="17"/>
-      <c r="F72" s="17"/>
+      <c r="E72" s="19"/>
+      <c r="F72" s="19"/>
       <c r="G72" s="15" t="s">
         <v>14</v>
       </c>
@@ -3563,10 +3572,10 @@
       </c>
     </row>
     <row r="78" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A78" s="19" t="s">
+      <c r="A78" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="B78" s="18"/>
+      <c r="B78" s="20"/>
       <c r="C78" s="16" t="s">
         <v>136</v>
       </c>
@@ -3632,11 +3641,11 @@
       <c r="C79" s="16" t="s">
         <v>137</v>
       </c>
-      <c r="D79" s="17" t="s">
+      <c r="D79" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="E79" s="18"/>
-      <c r="F79" s="18"/>
+      <c r="E79" s="20"/>
+      <c r="F79" s="20"/>
       <c r="G79" s="15" t="s">
         <v>15</v>
       </c>
@@ -3837,10 +3846,10 @@
       </c>
     </row>
     <row r="85" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A85" s="19" t="s">
+      <c r="A85" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="B85" s="18"/>
+      <c r="B85" s="20"/>
       <c r="C85" s="16" t="s">
         <v>141</v>
       </c>
@@ -3906,11 +3915,11 @@
       <c r="C86" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="D86" s="17" t="s">
+      <c r="D86" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="E86" s="18"/>
-      <c r="F86" s="18"/>
+      <c r="E86" s="20"/>
+      <c r="F86" s="20"/>
       <c r="G86" s="15" t="s">
         <v>15</v>
       </c>
@@ -4111,10 +4120,10 @@
       </c>
     </row>
     <row r="92" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A92" s="19" t="s">
+      <c r="A92" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="B92" s="18"/>
+      <c r="B92" s="20"/>
       <c r="C92" s="16" t="s">
         <v>146</v>
       </c>
@@ -4180,11 +4189,11 @@
       <c r="C93" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="D93" s="17" t="s">
+      <c r="D93" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="E93" s="18"/>
-      <c r="F93" s="18"/>
+      <c r="E93" s="20"/>
+      <c r="F93" s="20"/>
       <c r="G93" s="15" t="s">
         <v>15</v>
       </c>
@@ -4385,10 +4394,10 @@
       </c>
     </row>
     <row r="99" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A99" s="19" t="s">
+      <c r="A99" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="B99" s="18"/>
+      <c r="B99" s="20"/>
       <c r="C99" s="16" t="s">
         <v>150</v>
       </c>
@@ -4454,11 +4463,11 @@
       <c r="C100" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="D100" s="17" t="s">
+      <c r="D100" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="E100" s="18"/>
-      <c r="F100" s="18"/>
+      <c r="E100" s="20"/>
+      <c r="F100" s="20"/>
       <c r="G100" s="15" t="s">
         <v>15</v>
       </c>
@@ -4652,6 +4661,17 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="K2:O2"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="K17:T17"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="D56:F56"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="D42:F42"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="D49:F49"/>
+    <mergeCell ref="A55:B55"/>
     <mergeCell ref="D100:F100"/>
     <mergeCell ref="K4:O4"/>
     <mergeCell ref="K18:S18"/>
@@ -4668,17 +4688,6 @@
     <mergeCell ref="D35:F35"/>
     <mergeCell ref="A28:B28"/>
     <mergeCell ref="A8:B8"/>
-    <mergeCell ref="D56:F56"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="D42:F42"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="D49:F49"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="K2:O2"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="K17:T17"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="D28:F28"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Ginger DH Parameter.xlsx
+++ b/Ginger DH Parameter.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="250">
   <si>
     <t>i</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -772,35 +772,131 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Tl_1-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注：1和2之间的坐标系不是严格按照DH规则建立，因此单独计算1和2之间的旋转矩阵Tl_1-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tl_1-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A*cθ(2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B*sθ(2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A=-0.3420201433</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D*sθ(2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C=-0.93969262</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D=0.93969262</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C*cθ(2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A=0.3420201433</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B=-0.3420201433</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B=0.3420201433</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tl1_Y-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tl1_1-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tl1_1-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tr1_Y-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tr1_1-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B*cθ(2)-C*sθ(2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D*cθ(2)+E*sθ(2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F*sθ(2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G*sθ(2)+H*cθ(2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I*sθ(2)-J*cθ(2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tl_1-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>cθ(1)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>sθ(1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sθ(1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>负cθ(1)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Tl_1-2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>注：1和2之间的坐标系不是严格按照DH规则建立，因此单独计算1和2之间的旋转矩阵Tl_1-2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tl_1-2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A*cθ(2)</t>
+    <t>负sθ(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>负sθ(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_Back_z</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -808,95 +904,114 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>A=-0.3420201433</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D*sθ(2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C=-0.93969262</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D=0.93969262</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C*cθ(2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A=0.3420201433</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B=-0.3420201433</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B=0.3420201433</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tl1_Y-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tl1_1-2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tl1_1-2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tr1_Y-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tr1_1-2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A*cθ(2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B*cθ(2)-C*sθ(2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D*cθ(2)+E*sθ(2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F*sθ(2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>G*sθ(2)+H*cθ(2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>I*sθ(2)-J*cθ(2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>K</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>L</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>M</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tl_1-2</t>
+    <t>负sθ(2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>负sθ(2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>负cθ(2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_Back_x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cθ(2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>负sθ(3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cθ(3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cθ(3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_Back_y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cθ(4)</t>
+  </si>
+  <si>
+    <t>sθ(3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sθ(4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>负sθ(4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cθ(4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_Neck_z</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_Neck_x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cθ(6)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_Head_y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cθ(7)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sθ(7)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>负sθ(7)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>负cθ(7)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>负sθ(7)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cθ(7)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cθ(5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sθ(5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>负sθ(5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cθ(5)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -986,7 +1101,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1034,16 +1149,19 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1350,10 +1468,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z127"/>
+  <dimension ref="A1:AA127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P70" sqref="P70"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Z21" sqref="Z21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -1370,25 +1488,25 @@
     <col min="19" max="22" width="8.7265625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C1" s="1"/>
       <c r="K1" s="7"/>
       <c r="L1" s="7"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C2" s="1"/>
       <c r="D2" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="K2" s="19" t="s">
+      <c r="K2" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="20"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21"/>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C3" s="1"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -1398,7 +1516,7 @@
       <c r="K3" s="7"/>
       <c r="L3" s="7"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C4" s="8" t="s">
         <v>0</v>
       </c>
@@ -1420,15 +1538,15 @@
       <c r="I4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="21" t="s">
+      <c r="K4" s="23" t="s">
         <v>187</v>
       </c>
-      <c r="L4" s="21"/>
-      <c r="M4" s="21"/>
-      <c r="N4" s="21"/>
-      <c r="O4" s="21"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="L4" s="23"/>
+      <c r="M4" s="23"/>
+      <c r="N4" s="23"/>
+      <c r="O4" s="23"/>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C5" s="10" t="s">
         <v>7</v>
       </c>
@@ -1445,31 +1563,55 @@
         <v>188</v>
       </c>
       <c r="H5" s="11">
-        <v>0</v>
+        <v>-90</v>
       </c>
       <c r="I5" s="11" t="s">
         <v>33</v>
       </c>
       <c r="K5" s="4"/>
-      <c r="L5" s="3" t="s">
-        <v>189</v>
+      <c r="L5" s="3">
+        <v>0</v>
       </c>
       <c r="M5" s="3">
         <v>0</v>
       </c>
-      <c r="N5" s="3" t="s">
-        <v>190</v>
+      <c r="N5" s="3">
+        <v>1</v>
       </c>
       <c r="O5" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R5" s="19" t="s">
+        <v>228</v>
+      </c>
+      <c r="S5" s="19" t="s">
+        <v>227</v>
+      </c>
+      <c r="T5" s="15">
+        <v>0</v>
+      </c>
+      <c r="U5" s="15">
+        <v>0</v>
+      </c>
+      <c r="X5" s="19" t="s">
+        <v>246</v>
+      </c>
+      <c r="Y5" s="19" t="s">
+        <v>248</v>
+      </c>
+      <c r="Z5" s="19">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C6" s="13" t="s">
         <v>8</v>
       </c>
       <c r="D6" s="3">
-        <v>0</v>
+        <v>2.5839999999999998E-2</v>
       </c>
       <c r="E6" s="3">
         <v>-90</v>
@@ -1488,19 +1630,43 @@
       </c>
       <c r="K6" s="4"/>
       <c r="L6" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="M6" s="3">
-        <v>0</v>
-      </c>
-      <c r="N6" s="3" t="s">
-        <v>192</v>
+        <v>218</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="N6" s="3">
+        <v>0</v>
       </c>
       <c r="O6" s="3">
         <v>-0.163753578960292</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R6" s="19">
+        <v>0</v>
+      </c>
+      <c r="S6" s="15">
+        <v>0</v>
+      </c>
+      <c r="T6" s="15">
+        <v>-1</v>
+      </c>
+      <c r="U6" s="15">
+        <v>0</v>
+      </c>
+      <c r="X6" s="19">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="19">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="19">
+        <v>-1</v>
+      </c>
+      <c r="AA6" s="3">
+        <v>0.37820748993899</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C7" s="13" t="s">
         <v>9</v>
       </c>
@@ -1525,11 +1691,11 @@
       <c r="K7" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="L7" s="3">
-        <v>0</v>
-      </c>
-      <c r="M7" s="3">
-        <v>1</v>
+      <c r="L7" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>219</v>
       </c>
       <c r="N7" s="3">
         <v>0</v>
@@ -1537,8 +1703,38 @@
       <c r="O7" s="3">
         <v>0.42273293778499599</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q7" t="s">
+        <v>225</v>
+      </c>
+      <c r="R7" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="S7" s="19" t="s">
+        <v>229</v>
+      </c>
+      <c r="T7" s="15">
+        <v>0</v>
+      </c>
+      <c r="U7" s="15">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>236</v>
+      </c>
+      <c r="X7" s="19" t="s">
+        <v>247</v>
+      </c>
+      <c r="Y7" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="Z7" s="19">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
         <v>21</v>
       </c>
@@ -1577,8 +1773,32 @@
       <c r="O8" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+      <c r="S8" s="15">
+        <v>0</v>
+      </c>
+      <c r="T8" s="15">
+        <v>0</v>
+      </c>
+      <c r="U8" s="15">
+        <v>1</v>
+      </c>
+      <c r="X8" s="19">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="19">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="19">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="13" t="s">
@@ -1603,7 +1823,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="13" t="s">
@@ -1627,8 +1847,44 @@
       <c r="I10" s="11" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="L10" t="s">
+        <v>226</v>
+      </c>
+      <c r="M10" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="N10" s="11">
+        <v>0</v>
+      </c>
+      <c r="O10" s="11">
+        <v>2.5839999999999998E-2</v>
+      </c>
+      <c r="R10" s="19" t="s">
+        <v>235</v>
+      </c>
+      <c r="S10" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="T10" s="15">
+        <v>0</v>
+      </c>
+      <c r="U10" s="15">
+        <v>0.105</v>
+      </c>
+      <c r="X10" s="19" t="s">
+        <v>238</v>
+      </c>
+      <c r="Y10" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="Z10" s="19">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C11" s="13" t="s">
         <v>12</v>
       </c>
@@ -1650,28 +1906,172 @@
       <c r="I11" s="11" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K11" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="L11" s="19">
+        <v>0</v>
+      </c>
+      <c r="M11" s="11">
+        <v>0</v>
+      </c>
+      <c r="N11" s="11">
+        <v>1</v>
+      </c>
+      <c r="O11" s="11">
+        <v>0.45927387374239897</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>230</v>
+      </c>
+      <c r="R11" s="19">
+        <v>0</v>
+      </c>
+      <c r="S11" s="15">
+        <v>0</v>
+      </c>
+      <c r="T11" s="15">
+        <v>-1</v>
+      </c>
+      <c r="U11" s="15">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>237</v>
+      </c>
+      <c r="X11" s="19">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="19">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="19">
+        <v>1</v>
+      </c>
+      <c r="AA11" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C12" s="13" t="s">
         <v>13</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="L12" t="s">
+        <v>223</v>
+      </c>
+      <c r="M12" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="N12" s="11">
+        <v>0</v>
+      </c>
+      <c r="O12" s="11">
+        <v>0</v>
+      </c>
+      <c r="R12" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="S12" s="19" t="s">
+        <v>231</v>
+      </c>
+      <c r="T12" s="15">
+        <v>0</v>
+      </c>
+      <c r="U12" s="15">
+        <v>0</v>
+      </c>
+      <c r="X12" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="Y12" s="19" t="s">
+        <v>243</v>
+      </c>
+      <c r="Z12" s="19">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C13" s="10"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="L13" s="19">
+        <v>0</v>
+      </c>
+      <c r="M13" s="19">
+        <v>0</v>
+      </c>
+      <c r="N13" s="19">
+        <v>0</v>
+      </c>
+      <c r="O13" s="11">
+        <v>1</v>
+      </c>
+      <c r="R13" s="19">
+        <v>0</v>
+      </c>
+      <c r="S13" s="15">
+        <v>0</v>
+      </c>
+      <c r="T13" s="15">
+        <v>0</v>
+      </c>
+      <c r="U13" s="15">
+        <v>1</v>
+      </c>
+      <c r="X13" s="19">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="19">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="19">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C14" s="10"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C15" s="10"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="X15" s="19" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y15" s="19" t="s">
+        <v>244</v>
+      </c>
+      <c r="Z15" s="19">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="3">
+        <v>6.0974800626334903E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C16" s="10"/>
-    </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="W16" t="s">
+        <v>239</v>
+      </c>
+      <c r="X16" s="19">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="19">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="19">
+        <v>-1</v>
+      </c>
+      <c r="AA16" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C17" s="10" t="s">
         <v>25</v>
       </c>
@@ -1693,20 +2093,32 @@
       <c r="I17" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="K17" s="19" t="s">
+      <c r="K17" s="20" t="s">
         <v>184</v>
       </c>
-      <c r="L17" s="19"/>
-      <c r="M17" s="19"/>
-      <c r="N17" s="19"/>
-      <c r="O17" s="19"/>
-      <c r="P17" s="19"/>
-      <c r="Q17" s="19"/>
-      <c r="R17" s="19"/>
-      <c r="S17" s="19"/>
-      <c r="T17" s="19"/>
-    </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="L17" s="20"/>
+      <c r="M17" s="20"/>
+      <c r="N17" s="20"/>
+      <c r="O17" s="20"/>
+      <c r="P17" s="20"/>
+      <c r="Q17" s="20"/>
+      <c r="R17" s="20"/>
+      <c r="S17" s="20"/>
+      <c r="T17" s="20"/>
+      <c r="X17" s="19" t="s">
+        <v>241</v>
+      </c>
+      <c r="Y17" s="19" t="s">
+        <v>245</v>
+      </c>
+      <c r="Z17" s="19">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C18" s="10" t="s">
         <v>43</v>
       </c>
@@ -1726,21 +2138,33 @@
         <v>41</v>
       </c>
       <c r="I18" s="11" t="s">
-        <v>193</v>
-      </c>
-      <c r="K18" s="19" t="s">
-        <v>194</v>
-      </c>
-      <c r="L18" s="19"/>
-      <c r="M18" s="19"/>
-      <c r="N18" s="19"/>
-      <c r="O18" s="19"/>
-      <c r="P18" s="19"/>
-      <c r="Q18" s="19"/>
-      <c r="R18" s="19"/>
-      <c r="S18" s="19"/>
-    </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+      <c r="K18" s="20" t="s">
+        <v>190</v>
+      </c>
+      <c r="L18" s="20"/>
+      <c r="M18" s="20"/>
+      <c r="N18" s="20"/>
+      <c r="O18" s="20"/>
+      <c r="P18" s="20"/>
+      <c r="Q18" s="20"/>
+      <c r="R18" s="20"/>
+      <c r="S18" s="20"/>
+      <c r="X18" s="19">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="19">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="19">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C19" s="10" t="s">
         <v>44</v>
       </c>
@@ -1763,7 +2187,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C20" s="10" t="s">
         <v>45</v>
       </c>
@@ -1786,10 +2210,10 @@
         <v>37</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>211</v>
+        <v>192</v>
       </c>
       <c r="N20" s="3" t="s">
-        <v>197</v>
+        <v>221</v>
       </c>
       <c r="O20" s="3">
         <v>-0.93969261999999998</v>
@@ -1798,11 +2222,11 @@
         <v>0.16339999999999999</v>
       </c>
       <c r="R20" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="Y20" s="17"/>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C21" s="10" t="s">
         <v>46</v>
       </c>
@@ -1825,13 +2249,13 @@
         <v>38</v>
       </c>
       <c r="L21" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="N21" s="3" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="O21" s="3">
         <v>0.34202014330000002</v>
@@ -1840,15 +2264,15 @@
         <v>-0.2581</v>
       </c>
       <c r="R21" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="Y21" s="17"/>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="20"/>
+      <c r="B22" s="21"/>
       <c r="C22" s="10" t="s">
         <v>47</v>
       </c>
@@ -1883,10 +2307,10 @@
         <v>1.7000000000000001E-2</v>
       </c>
       <c r="R22" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C23" s="10" t="s">
         <v>48</v>
       </c>
@@ -1921,10 +2345,10 @@
         <v>1</v>
       </c>
       <c r="R23" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C24" s="10" t="s">
         <v>49</v>
       </c>
@@ -1947,13 +2371,13 @@
         <v>53</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C25" s="10"/>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C26" s="10"/>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C27" s="10" t="s">
         <v>59</v>
       </c>
@@ -1964,13 +2388,13 @@
         <v>41</v>
       </c>
       <c r="M27" s="11" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="N27" s="11" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="O27" s="11" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="P27" s="11">
         <v>-4.2196597910567603E-2</v>
@@ -1988,7 +2412,7 @@
         <v>-1.5001254723339999E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A28" s="22" t="s">
         <v>57</v>
       </c>
@@ -1996,34 +2420,34 @@
       <c r="C28" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="D28" s="19" t="s">
+      <c r="D28" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
       <c r="G28" s="11" t="s">
         <v>42</v>
       </c>
       <c r="I28" s="11" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="L28" t="s">
         <v>66</v>
       </c>
       <c r="M28" s="11" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="N28" s="11" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="O28" s="11" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="P28" s="11">
         <v>-9.4160652770136299E-2</v>
       </c>
       <c r="R28" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="S28" s="15" t="s">
         <v>111</v>
@@ -2038,7 +2462,7 @@
         <v>2.12358742868166E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C29" s="10" t="s">
         <v>61</v>
       </c>
@@ -2049,16 +2473,16 @@
         <v>-3.0930053351731401</v>
       </c>
       <c r="I29" s="11" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="M29" s="11" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="N29" s="11" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="O29" s="11" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="P29" s="11">
         <v>3.1764210782470603E-2</v>
@@ -2076,7 +2500,7 @@
         <v>-3.7299995011161303E-4</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C30" s="10" t="s">
         <v>55</v>
       </c>
@@ -2111,10 +2535,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C31" s="10"/>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C32" s="10"/>
     </row>
     <row r="33" spans="1:26" x14ac:dyDescent="0.25">
@@ -2171,7 +2595,7 @@
       <c r="A34" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="B34" s="20"/>
+      <c r="B34" s="21"/>
       <c r="C34" s="10" t="s">
         <v>62</v>
       </c>
@@ -2234,11 +2658,11 @@
       <c r="C35" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="D35" s="19" t="s">
+      <c r="D35" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="E35" s="20"/>
-      <c r="F35" s="20"/>
+      <c r="E35" s="21"/>
+      <c r="F35" s="21"/>
       <c r="G35" s="11" t="s">
         <v>15</v>
       </c>
@@ -2409,7 +2833,7 @@
       <c r="A41" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="B41" s="20"/>
+      <c r="B41" s="21"/>
       <c r="C41" s="10" t="s">
         <v>77</v>
       </c>
@@ -2472,11 +2896,11 @@
       <c r="C42" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D42" s="19" t="s">
+      <c r="D42" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="E42" s="20"/>
-      <c r="F42" s="20"/>
+      <c r="E42" s="21"/>
+      <c r="F42" s="21"/>
       <c r="G42" s="11" t="s">
         <v>15</v>
       </c>
@@ -2647,7 +3071,7 @@
       <c r="A48" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="B48" s="20"/>
+      <c r="B48" s="21"/>
       <c r="C48" s="10" t="s">
         <v>85</v>
       </c>
@@ -2710,11 +3134,11 @@
       <c r="C49" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="D49" s="19" t="s">
+      <c r="D49" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="E49" s="20"/>
-      <c r="F49" s="20"/>
+      <c r="E49" s="21"/>
+      <c r="F49" s="21"/>
       <c r="G49" s="11" t="s">
         <v>15</v>
       </c>
@@ -2885,7 +3309,7 @@
       <c r="A55" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="B55" s="20"/>
+      <c r="B55" s="21"/>
       <c r="C55" s="10" t="s">
         <v>94</v>
       </c>
@@ -2948,11 +3372,11 @@
       <c r="C56" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="D56" s="19" t="s">
+      <c r="D56" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="E56" s="20"/>
-      <c r="F56" s="20"/>
+      <c r="E56" s="21"/>
+      <c r="F56" s="21"/>
       <c r="G56" s="11" t="s">
         <v>15</v>
       </c>
@@ -3190,10 +3614,10 @@
         <v>38</v>
       </c>
       <c r="M65" s="3" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="N65" s="3" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="O65" s="3">
         <v>-0.93969261999999998</v>
@@ -3202,14 +3626,14 @@
         <v>0.16339999999999999</v>
       </c>
       <c r="R65" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="66" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A66" s="22" t="s">
         <v>125</v>
       </c>
-      <c r="B66" s="20"/>
+      <c r="B66" s="21"/>
       <c r="C66" s="16" t="s">
         <v>129</v>
       </c>
@@ -3232,13 +3656,13 @@
         <v>39</v>
       </c>
       <c r="L66" t="s">
+        <v>191</v>
+      </c>
+      <c r="M66" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="N66" s="3" t="s">
         <v>195</v>
-      </c>
-      <c r="M66" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="N66" s="3" t="s">
-        <v>199</v>
       </c>
       <c r="O66" s="3">
         <v>-0.34202014330000002</v>
@@ -3247,7 +3671,7 @@
         <v>-0.2581</v>
       </c>
       <c r="R66" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="67" spans="1:26" x14ac:dyDescent="0.25">
@@ -3285,7 +3709,7 @@
         <v>1.7000000000000001E-2</v>
       </c>
       <c r="R67" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="68" spans="1:26" x14ac:dyDescent="0.25">
@@ -3323,7 +3747,7 @@
         <v>1</v>
       </c>
       <c r="R68" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="69" spans="1:26" x14ac:dyDescent="0.25">
@@ -3379,11 +3803,11 @@
       <c r="C72" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="D72" s="19" t="s">
+      <c r="D72" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="E72" s="19"/>
-      <c r="F72" s="19"/>
+      <c r="E72" s="20"/>
+      <c r="F72" s="20"/>
       <c r="G72" s="15" t="s">
         <v>14</v>
       </c>
@@ -3392,7 +3816,7 @@
         <v>154</v>
       </c>
       <c r="L72" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="M72" s="15" t="s">
         <v>106</v>
@@ -3407,7 +3831,7 @@
         <v>-9.4160652770136202E-2</v>
       </c>
       <c r="R72" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="S72" s="15" t="s">
         <v>111</v>
@@ -3575,7 +3999,7 @@
       <c r="A78" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="B78" s="20"/>
+      <c r="B78" s="21"/>
       <c r="C78" s="16" t="s">
         <v>136</v>
       </c>
@@ -3641,11 +4065,11 @@
       <c r="C79" s="16" t="s">
         <v>137</v>
       </c>
-      <c r="D79" s="19" t="s">
+      <c r="D79" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="E79" s="20"/>
-      <c r="F79" s="20"/>
+      <c r="E79" s="21"/>
+      <c r="F79" s="21"/>
       <c r="G79" s="15" t="s">
         <v>15</v>
       </c>
@@ -3849,7 +4273,7 @@
       <c r="A85" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="B85" s="20"/>
+      <c r="B85" s="21"/>
       <c r="C85" s="16" t="s">
         <v>141</v>
       </c>
@@ -3915,11 +4339,11 @@
       <c r="C86" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="D86" s="19" t="s">
+      <c r="D86" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="E86" s="20"/>
-      <c r="F86" s="20"/>
+      <c r="E86" s="21"/>
+      <c r="F86" s="21"/>
       <c r="G86" s="15" t="s">
         <v>15</v>
       </c>
@@ -4123,7 +4547,7 @@
       <c r="A92" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="B92" s="20"/>
+      <c r="B92" s="21"/>
       <c r="C92" s="16" t="s">
         <v>146</v>
       </c>
@@ -4189,11 +4613,11 @@
       <c r="C93" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="D93" s="19" t="s">
+      <c r="D93" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="E93" s="20"/>
-      <c r="F93" s="20"/>
+      <c r="E93" s="21"/>
+      <c r="F93" s="21"/>
       <c r="G93" s="15" t="s">
         <v>15</v>
       </c>
@@ -4397,7 +4821,7 @@
       <c r="A99" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="B99" s="20"/>
+      <c r="B99" s="21"/>
       <c r="C99" s="16" t="s">
         <v>150</v>
       </c>
@@ -4463,11 +4887,11 @@
       <c r="C100" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="D100" s="19" t="s">
+      <c r="D100" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="E100" s="20"/>
-      <c r="F100" s="20"/>
+      <c r="E100" s="21"/>
+      <c r="F100" s="21"/>
       <c r="G100" s="15" t="s">
         <v>15</v>
       </c>
@@ -4661,17 +5085,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="K2:O2"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="K17:T17"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="D56:F56"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="D42:F42"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="D49:F49"/>
-    <mergeCell ref="A55:B55"/>
     <mergeCell ref="D100:F100"/>
     <mergeCell ref="K4:O4"/>
     <mergeCell ref="K18:S18"/>
@@ -4688,6 +5101,17 @@
     <mergeCell ref="D35:F35"/>
     <mergeCell ref="A28:B28"/>
     <mergeCell ref="A8:B8"/>
+    <mergeCell ref="D56:F56"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="D42:F42"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="D49:F49"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="K2:O2"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="K17:T17"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="D28:F28"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Ginger DH Parameter.xlsx
+++ b/Ginger DH Parameter.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="192">
   <si>
     <t xml:space="preserve">Ginger DH Parameter</t>
   </si>
@@ -244,6 +244,7 @@
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">S</t>
     </r>
@@ -254,6 +255,7 @@
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">(</t>
     </r>
@@ -263,6 +265,7 @@
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">-1.92</t>
     </r>
@@ -273,6 +276,7 @@
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">)</t>
     </r>
@@ -485,7 +489,7 @@
     <t xml:space="preserve">Right_Shoulder_X(2)</t>
   </si>
   <si>
-    <t xml:space="preserve">注：1和2之间的坐标系不是严格按照DH规则建立，因此单独计算1和2之间的旋转矩阵</t>
+    <t xml:space="preserve">注：1和2之间的坐标系不是严格按照DH规则建立，因此单独计算1和2之间的固定旋转矩阵</t>
   </si>
   <si>
     <t xml:space="preserve">Right_Shoulder_Y(3)</t>
@@ -497,10 +501,51 @@
     <t xml:space="preserve">Right_Elbow_X(5)</t>
   </si>
   <si>
-    <t xml:space="preserve">B*sθ(2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A=0.3420201433</t>
+    <t xml:space="preserve">C(-1.22)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">-S</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">-1.22</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">)</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Right Shoulder</t>
@@ -509,25 +554,13 @@
     <t xml:space="preserve">Right_Wrist_Z(6)</t>
   </si>
   <si>
-    <t xml:space="preserve">C*cθ(2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D*sθ(2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B=-0.3420201433</t>
+    <t xml:space="preserve">S(-1.22)</t>
   </si>
   <si>
     <t xml:space="preserve">Right_Wrist_X(7)</t>
   </si>
   <si>
-    <t xml:space="preserve">C=-0.93969262</t>
-  </si>
-  <si>
     <t xml:space="preserve">Right_Wrist_Y(8)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D=0.93969262</t>
   </si>
   <si>
     <t xml:space="preserve">Right_Wrist_Y(1)</t>
@@ -654,7 +687,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -700,17 +733,12 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b val="true"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -804,7 +832,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -835,8 +863,8 @@
   </sheetPr>
   <dimension ref="A1:AA102"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q24" activeCellId="0" sqref="Q24"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Q68" activeCellId="0" sqref="Q68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -846,14 +874,14 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="22.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="10"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="1" width="8.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="1" width="8.74"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="9.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="8.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="20.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="9.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="13" style="1" width="8.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="13" style="1" width="8.74"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="17" style="0" width="8.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="19" style="1" width="8.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="19" style="1" width="8.74"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="23" style="0" width="8.63"/>
   </cols>
   <sheetData>
@@ -2948,7 +2976,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="16.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C65" s="3" t="s">
         <v>145</v>
       </c>
@@ -2971,22 +2999,19 @@
         <v>74</v>
       </c>
       <c r="M65" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="N65" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="O65" s="7" t="n">
-        <v>-0.93969262</v>
+      <c r="N65" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O65" s="12" t="s">
+        <v>147</v>
       </c>
       <c r="P65" s="7" t="n">
-        <v>0.1634</v>
-      </c>
-      <c r="R65" s="0" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>-0.1634</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="10" t="s">
         <v>148</v>
       </c>
@@ -3015,25 +3040,22 @@
       <c r="L66" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="M66" s="7" t="s">
+      <c r="M66" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="N66" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="O66" s="7" t="n">
-        <v>-0.3420201433</v>
+      <c r="N66" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O66" s="12" t="s">
+        <v>146</v>
       </c>
       <c r="P66" s="7" t="n">
         <v>-0.2581</v>
       </c>
-      <c r="R66" s="0" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C67" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D67" s="1" t="n">
         <v>0</v>
@@ -3053,11 +3075,11 @@
       <c r="I67" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="M67" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="N67" s="7" t="s">
-        <v>41</v>
+      <c r="M67" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N67" s="7" t="n">
+        <v>-1</v>
       </c>
       <c r="O67" s="7" t="n">
         <v>0</v>
@@ -3065,13 +3087,10 @@
       <c r="P67" s="7" t="n">
         <v>0.017</v>
       </c>
-      <c r="R67" s="0" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C68" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D68" s="1" t="n">
         <v>0</v>
@@ -3103,9 +3122,6 @@
       <c r="P68" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="R68" s="0" t="s">
-        <v>156</v>
-      </c>
     </row>
     <row r="69" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C69" s="13"/>
@@ -3115,7 +3131,7 @@
     </row>
     <row r="71" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C71" s="3" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="G71" s="1" t="s">
         <v>11</v>
@@ -3154,7 +3170,7 @@
       </c>
       <c r="B72" s="10"/>
       <c r="C72" s="3" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D72" s="4" t="s">
         <v>91</v>
@@ -3165,10 +3181,10 @@
         <v>18</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="L72" s="0" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="M72" s="1" t="s">
         <v>106</v>
@@ -3183,7 +3199,7 @@
         <v>-0.0941606527701362</v>
       </c>
       <c r="R72" s="0" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="S72" s="1" t="s">
         <v>28</v>
@@ -3200,13 +3216,13 @@
     </row>
     <row r="73" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C73" s="3" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="G73" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="M73" s="1" t="n">
         <v>0</v>
@@ -3235,13 +3251,13 @@
     </row>
     <row r="74" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C74" s="3" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="G74" s="1" t="s">
         <v>33</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="M74" s="1" t="n">
         <v>0</v>
@@ -3276,7 +3292,7 @@
     </row>
     <row r="77" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C77" s="3" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="G77" s="1" t="s">
         <v>11</v>
@@ -3330,7 +3346,7 @@
       </c>
       <c r="B78" s="10"/>
       <c r="C78" s="3" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="G78" s="1" t="s">
         <v>18</v>
@@ -3339,10 +3355,10 @@
         <v>0</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="L78" s="13" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="M78" s="1" t="s">
         <v>106</v>
@@ -3357,7 +3373,7 @@
         <v>-0.116385781256913</v>
       </c>
       <c r="Q78" s="13" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="R78" s="1" t="s">
         <v>28</v>
@@ -3372,7 +3388,7 @@
         <v>-0.025999999071151</v>
       </c>
       <c r="V78" s="3" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="W78" s="1" t="s">
         <v>55</v>
@@ -3389,7 +3405,7 @@
     </row>
     <row r="79" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C79" s="3" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D79" s="4" t="s">
         <v>110</v>
@@ -3403,7 +3419,7 @@
         <v>0</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="M79" s="1" t="n">
         <v>0</v>
@@ -3444,7 +3460,7 @@
     </row>
     <row r="80" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C80" s="3" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G80" s="1" t="s">
         <v>33</v>
@@ -3453,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="M80" s="1" t="n">
         <v>0</v>
@@ -3494,7 +3510,7 @@
     </row>
     <row r="81" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C81" s="3" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="G81" s="1" t="s">
         <v>36</v>
@@ -3503,7 +3519,7 @@
         <v>0</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3514,7 +3530,7 @@
     </row>
     <row r="84" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C84" s="3" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="G84" s="1" t="s">
         <v>11</v>
@@ -3568,7 +3584,7 @@
       </c>
       <c r="B85" s="10"/>
       <c r="C85" s="3" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="G85" s="1" t="s">
         <v>18</v>
@@ -3577,10 +3593,10 @@
         <v>0</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="L85" s="13" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="M85" s="1" t="s">
         <v>106</v>
@@ -3595,7 +3611,7 @@
         <v>-0.121385781256913</v>
       </c>
       <c r="Q85" s="13" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="R85" s="1" t="s">
         <v>28</v>
@@ -3610,7 +3626,7 @@
         <v>-0.0259999990711514</v>
       </c>
       <c r="V85" s="3" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="W85" s="1" t="s">
         <v>55</v>
@@ -3627,7 +3643,7 @@
     </row>
     <row r="86" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C86" s="3" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D86" s="4" t="s">
         <v>110</v>
@@ -3641,7 +3657,7 @@
         <v>0</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="M86" s="1" t="n">
         <v>0</v>
@@ -3682,7 +3698,7 @@
     </row>
     <row r="87" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C87" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="G87" s="1" t="s">
         <v>33</v>
@@ -3691,7 +3707,7 @@
         <v>0</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="M87" s="1" t="n">
         <v>0</v>
@@ -3732,7 +3748,7 @@
     </row>
     <row r="88" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C88" s="3" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G88" s="1" t="s">
         <v>36</v>
@@ -3741,7 +3757,7 @@
         <v>0</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3752,7 +3768,7 @@
     </row>
     <row r="91" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C91" s="3" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="G91" s="1" t="s">
         <v>11</v>
@@ -3806,7 +3822,7 @@
       </c>
       <c r="B92" s="10"/>
       <c r="C92" s="3" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="G92" s="1" t="s">
         <v>18</v>
@@ -3815,10 +3831,10 @@
         <v>0</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="L92" s="13" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="M92" s="1" t="s">
         <v>106</v>
@@ -3833,7 +3849,7 @@
         <v>-0.113385771822664</v>
       </c>
       <c r="Q92" s="13" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="R92" s="1" t="s">
         <v>28</v>
@@ -3848,7 +3864,7 @@
         <v>-0.0260000085054002</v>
       </c>
       <c r="V92" s="3" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="W92" s="1" t="s">
         <v>55</v>
@@ -3865,7 +3881,7 @@
     </row>
     <row r="93" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C93" s="3" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D93" s="4" t="s">
         <v>110</v>
@@ -3879,7 +3895,7 @@
         <v>0</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="M93" s="1" t="n">
         <v>0</v>
@@ -3920,7 +3936,7 @@
     </row>
     <row r="94" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C94" s="3" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G94" s="1" t="s">
         <v>33</v>
@@ -3929,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="M94" s="1" t="n">
         <v>0</v>
@@ -3970,7 +3986,7 @@
     </row>
     <row r="95" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C95" s="3" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="G95" s="1" t="s">
         <v>36</v>
@@ -3979,7 +3995,7 @@
         <v>0</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3990,7 +4006,7 @@
     </row>
     <row r="98" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C98" s="3" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="G98" s="1" t="s">
         <v>11</v>
@@ -4044,7 +4060,7 @@
       </c>
       <c r="B99" s="10"/>
       <c r="C99" s="3" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="G99" s="1" t="s">
         <v>18</v>
@@ -4053,10 +4069,10 @@
         <v>0</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="L99" s="13" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="M99" s="1" t="s">
         <v>106</v>
@@ -4071,7 +4087,7 @@
         <v>-0.108682998728874</v>
       </c>
       <c r="Q99" s="13" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="R99" s="1" t="s">
         <v>28</v>
@@ -4086,7 +4102,7 @@
         <v>-0.023451660741343</v>
       </c>
       <c r="V99" s="3" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="W99" s="1" t="s">
         <v>55</v>
@@ -4103,7 +4119,7 @@
     </row>
     <row r="100" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C100" s="3" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D100" s="4" t="s">
         <v>110</v>
@@ -4117,7 +4133,7 @@
         <v>0</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="M100" s="1" t="n">
         <v>0</v>
@@ -4158,7 +4174,7 @@
     </row>
     <row r="101" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C101" s="3" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="G101" s="1" t="s">
         <v>33</v>
@@ -4167,7 +4183,7 @@
         <v>0</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="M101" s="1" t="n">
         <v>0</v>
@@ -4208,7 +4224,7 @@
     </row>
     <row r="102" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C102" s="3" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="G102" s="1" t="s">
         <v>36</v>
@@ -4217,7 +4233,7 @@
         <v>0</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>
